--- a/2daParte/Mediciones_AmplificadorEC.xlsx
+++ b/2daParte/Mediciones_AmplificadorEC.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0091D6-55FC-4E54-92A9-03540D83C1DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788AA8DA-AA11-473D-9A68-9FE2F6C15375}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>f</t>
   </si>
@@ -30,12 +36,24 @@
   <si>
     <t>Fase</t>
   </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>Zin</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +63,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -97,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -113,6 +137,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -395,31 +429,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -431,243 +479,605 @@
         <v>2</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="5">
         <v>100</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="5">
+        <v>-6.8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-15</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F4" s="10">
+        <v>1.15E-2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="10">
+        <f>10000*G4/(F4-G4)</f>
+        <v>7692.3076923076924</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="5">
         <v>200</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-6</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F5" s="9">
+        <v>2.12E-2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" ref="H5:H24" si="0">10000*G5/(F5-G5)</f>
+        <v>7520.6611570247933</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="5">
         <v>300</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F6" s="9">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>7484.6625766871166</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="5">
         <v>400</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="5">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5">
+        <v>23</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F7" s="9">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1.43E-2</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
+        <v>7409.3264248704672</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="5">
         <v>500</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>36</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F8" s="9">
+        <v>3.73E-2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>7268.5185185185182</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="5">
         <v>600</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="5">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5">
+        <v>48</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1.67E-2</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="0"/>
+        <v>7167.3819742489268</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="5">
         <v>700</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>57</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F10" s="9">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>7201.6460905349822</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="5">
         <v>800</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5">
+        <v>30.3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>63</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F11" s="9">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>7075.0988142292481</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="5">
         <v>900</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5">
+        <v>31.4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>70</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F12" s="9">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>6999.9999999999991</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="5">
         <v>1000</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="5">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D13" s="5">
+        <v>74</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F13" s="9">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>6928.8389513108623</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="5">
         <v>2000</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="5">
+        <v>36.6</v>
+      </c>
+      <c r="D14" s="5">
+        <v>115</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F14" s="9">
+        <v>4.82E-2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="0"/>
+        <v>6678.2006920415224</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="5">
         <v>3000</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D15" s="5">
+        <v>130</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F15" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="0"/>
+        <v>6501.650165016501</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="5">
         <v>4000</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="5">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D16" s="5">
+        <v>138</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F16" s="9">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="0"/>
+        <v>6449.5114006514668</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="5">
         <v>5000</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>144</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F17" s="9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="0"/>
+        <v>6398.7138263665602</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="5">
         <v>6000</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="5">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D18" s="5">
+        <v>148</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F18" s="9">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>6349.2063492063489</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="5">
         <v>7000</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="5">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D19" s="5">
+        <v>150</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F19" s="9">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="0"/>
+        <v>6349.2063492063489</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="5">
         <v>8000</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="5">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D20" s="5">
+        <v>153</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F20" s="9">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="0"/>
+        <v>6349.2063492063489</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="5">
         <v>9000</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="5">
+        <v>38.9</v>
+      </c>
+      <c r="D21" s="5">
+        <v>159</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F21" s="9">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="0"/>
+        <v>6349.2063492063489</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="5">
         <v>10000</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="5">
+        <v>38.9</v>
+      </c>
+      <c r="D22" s="5">
+        <v>160</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F22" s="9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="0"/>
+        <v>6250</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="5">
         <v>50000</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="5">
+        <v>38.9</v>
+      </c>
+      <c r="D23" s="5">
+        <v>175</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F23" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="0"/>
+        <v>4324.3243243243242</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="5">
         <v>100000</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="5">
+        <v>38.9</v>
+      </c>
+      <c r="D24" s="5">
+        <v>180</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F24" s="9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>

--- a/2daParte/Mediciones_AmplificadorEC.xlsx
+++ b/2daParte/Mediciones_AmplificadorEC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788AA8DA-AA11-473D-9A68-9FE2F6C15375}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F9101-A82C-4A52-864F-40EC39C07879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>f</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Vin</t>
+  </si>
+  <si>
+    <t>Zout</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -140,9 +149,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,19 +435,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -450,11 +458,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -464,10 +474,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -489,10 +501,18 @@
         <v>4</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="5">
         <v>100</v>
@@ -504,21 +524,30 @@
         <v>-15</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>1.15E-2</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <f>10000*G4/(F4-G4)</f>
         <v>7692.3076923076924</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L4" s="8">
+        <f>-(J4-K4)*10000/K4</f>
+        <v>8660.7142857142844</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="5">
         <v>200</v>
@@ -530,21 +559,30 @@
         <v>-6</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>2.12E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f t="shared" ref="H5:H24" si="0">10000*G5/(F5-G5)</f>
         <v>7520.6611570247933</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J5" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" ref="L5:L24" si="1">-(J5-K5)*10000/K5</f>
+        <v>7794.1176470588234</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="5">
         <v>300</v>
@@ -556,21 +594,30 @@
         <v>10</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>7484.6625766871166</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J6" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="K6" s="5">
+        <v>6.68</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="1"/>
+        <v>7095.8083832335333</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="5">
         <v>400</v>
@@ -582,21 +629,30 @@
         <v>23</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>1.43E-2</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>7409.3264248704672</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J7" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3.56</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="1"/>
+        <v>6741.5730337078658</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="5">
         <v>500</v>
@@ -608,21 +664,30 @@
         <v>36</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>3.73E-2</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>7268.5185185185182</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J8" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4.95</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>6565.6565656565654</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="5">
         <v>600</v>
@@ -634,21 +699,30 @@
         <v>48</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>0.04</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>1.67E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>7167.3819742489268</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J9" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K9" s="5">
+        <v>6.24</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>6474.3589743589746</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="5">
         <v>700</v>
@@ -660,21 +734,30 @@
         <v>57</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>7201.6460905349822</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J10" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3.87</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="1"/>
+        <v>6330.7493540051673</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="5">
         <v>800</v>
@@ -686,21 +769,30 @@
         <v>63</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>7075.0988142292481</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J11" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="1"/>
+        <v>6283.7837837837842</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="5">
         <v>900</v>
@@ -712,21 +804,30 @@
         <v>70</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>6999.9999999999991</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J12" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="K12" s="5">
+        <v>5</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="1"/>
+        <v>6279.9999999999991</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="5">
         <v>1000</v>
@@ -738,21 +839,30 @@
         <v>74</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>6928.8389513108623</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J13" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>5.45</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="1"/>
+        <v>6146.7889908256875</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="5">
         <v>2000</v>
@@ -764,21 +874,30 @@
         <v>115</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>4.82E-2</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>6678.2006920415224</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J14" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
+        <v>5980.5115712545676</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="5">
         <v>3000</v>
@@ -790,21 +909,30 @@
         <v>130</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>0.05</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>6501.650165016501</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J15" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3.92</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="1"/>
+        <v>5969.3877551020405</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="5">
         <v>4000</v>
@@ -816,21 +944,30 @@
         <v>138</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <f t="shared" si="0"/>
         <v>6449.5114006514668</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J16" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="K16" s="5">
+        <v>4</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="1"/>
+        <v>5875</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="5">
         <v>5000</v>
@@ -842,21 +979,30 @@
         <v>144</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <f t="shared" si="0"/>
         <v>6398.7138263665602</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J17" s="5">
+        <v>1.72</v>
+      </c>
+      <c r="K17" s="5">
+        <v>4.12</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="1"/>
+        <v>5825.2427184466023</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="5">
         <v>6000</v>
@@ -868,21 +1014,30 @@
         <v>148</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>0.02</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f t="shared" si="0"/>
         <v>6349.2063492063489</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J18" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="1"/>
+        <v>5823.3890214797138</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="5">
         <v>7000</v>
@@ -894,21 +1049,30 @@
         <v>150</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>0.02</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <f t="shared" si="0"/>
         <v>6349.2063492063489</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J19" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="K19" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="1"/>
+        <v>5860.4651162790688</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="5">
         <v>8000</v>
@@ -920,21 +1084,30 @@
         <v>153</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>0.02</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <f t="shared" si="0"/>
         <v>6349.2063492063489</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J20" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="1"/>
+        <v>5860.4651162790688</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="5">
         <v>9000</v>
@@ -946,21 +1119,30 @@
         <v>159</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>0.02</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <f t="shared" si="0"/>
         <v>6349.2063492063489</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J21" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="K21" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="1"/>
+        <v>5860.4651162790688</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="5">
         <v>10000</v>
@@ -972,21 +1154,30 @@
         <v>160</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>0.02</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <f t="shared" si="0"/>
         <v>6250</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J22" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="1"/>
+        <v>5860.4651162790688</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="5">
         <v>50000</v>
@@ -998,21 +1189,30 @@
         <v>175</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>1.6E-2</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <f t="shared" si="0"/>
         <v>4324.3243243243242</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J23" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="K23" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="1"/>
+        <v>5315.78947368421</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="5">
         <v>100000</v>
@@ -1024,21 +1224,30 @@
         <v>180</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>5.5E-2</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J24" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="K24" s="5">
+        <v>3</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="1"/>
+        <v>4066.6666666666665</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1048,10 +1257,12 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1061,10 +1272,12 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1073,11 +1286,13 @@
       <c r="F27" s="1"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>

--- a/2daParte/Mediciones_AmplificadorEC.xlsx
+++ b/2daParte/Mediciones_AmplificadorEC.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F9101-A82C-4A52-864F-40EC39C07879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D488EB72-D84B-480E-9D1D-2EB3CDDEF383}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,41 +1212,6 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5">
-        <v>100000</v>
-      </c>
-      <c r="C24" s="5">
-        <v>38.9</v>
-      </c>
-      <c r="D24" s="5">
-        <v>180</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="8">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="5">
-        <v>1.78</v>
-      </c>
-      <c r="K24" s="5">
-        <v>3</v>
-      </c>
-      <c r="L24" s="8">
-        <f t="shared" si="1"/>
-        <v>4066.6666666666665</v>
-      </c>
-      <c r="M24" s="2"/>
-    </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>

--- a/2daParte/Mediciones_AmplificadorEC.xlsx
+++ b/2daParte/Mediciones_AmplificadorEC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D488EB72-D84B-480E-9D1D-2EB3CDDEF383}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B116E5D-25E5-4284-B21E-C4DB98C208B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +566,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ref="H5:H24" si="0">10000*G5/(F5-G5)</f>
+        <f t="shared" ref="H5:H23" si="0">10000*G5/(F5-G5)</f>
         <v>7520.6611570247933</v>
       </c>
       <c r="I5" s="2"/>
@@ -577,7 +577,7 @@
         <v>3.4</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" ref="L5:L24" si="1">-(J5-K5)*10000/K5</f>
+        <f t="shared" ref="L5:L23" si="1">-(J5-K5)*10000/K5</f>
         <v>7794.1176470588234</v>
       </c>
       <c r="M5" s="2"/>
@@ -1211,6 +1211,17 @@
         <v>5315.78947368421</v>
       </c>
       <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>100000</v>
+      </c>
+      <c r="C24" s="5">
+        <v>38.9</v>
+      </c>
+      <c r="D24" s="5">
+        <v>180</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>

--- a/2daParte/Mediciones_AmplificadorEC.xlsx
+++ b/2daParte/Mediciones_AmplificadorEC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B116E5D-25E5-4284-B21E-C4DB98C208B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FBCF18-31C1-4BFC-AE87-4B246E2ECAF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>V2</t>
+  </si>
+  <si>
+    <t>freq</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,33 +482,33 @@
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" s="2"/>
     </row>
